--- a/lab9/Lab09-Flu-Mook.xlsx
+++ b/lab9/Lab09-Flu-Mook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F564B1A7-53F8-4876-9EF7-800AF792978D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C1A08C-8C4F-49B5-BFED-CF93D92D5427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8426D50-BA63-164F-9726-EF2B590156AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8426D50-BA63-164F-9726-EF2B590156AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="187" formatCode="0.00000"/>
     <numFmt numFmtId="188" formatCode="0.0000"/>
     <numFmt numFmtId="189" formatCode="0.000000"/>
+    <numFmt numFmtId="191" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -187,6 +188,24 @@
     <xf numFmtId="188" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="187" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="188" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,33 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="191" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="191" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +418,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$24:$B$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.8956039866820665E-2</c:v>
@@ -715,7 +716,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -921,7 +922,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$24:$D$41</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2.4329659719486752E-3</c:v>
@@ -984,7 +985,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$24:$B$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.8956039866820665E-2</c:v>
@@ -1151,7 +1152,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1282,7 +1283,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1546,7 +1547,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$24:$G$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.7296827516516323E-2</c:v>
@@ -1844,7 +1845,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2052,7 +2053,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$24:$I$41</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2.2838245154705246E-3</c:v>
@@ -2115,7 +2116,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$24:$G$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.7296827516516323E-2</c:v>
@@ -2282,7 +2283,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2413,7 +2414,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2677,7 +2678,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$24:$L$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.4605469016710582E-2</c:v>
@@ -2865,7 +2866,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3080,7 +3081,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$24:$N$41</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2.069484994648979E-3</c:v>
@@ -3143,7 +3144,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$24:$L$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.4605469016710582E-2</c:v>
@@ -3255,7 +3256,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3331,7 +3332,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7284,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A263C9-2CB8-3A4C-AA57-28BFC84F82EF}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7300,24 +7301,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7366,11 +7367,11 @@
         <v>3.2956039866820677E-2</v>
       </c>
       <c r="C3" s="1">
-        <f>B3+(((A$3*10^-3)^2)/(2*9.81*(B3^2)))</f>
+        <f t="shared" ref="C3:C10" si="0">B3+(((A$3*10^-3)^2)/(2*9.81*(B3^2)))</f>
         <v>5.2619803409932345E-2</v>
       </c>
       <c r="D3" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B3))+((B3^2)/2)</f>
+        <f t="shared" ref="D3:D10" si="1">(((A$3*10^-3)^2)/(9.81*B3))+((B3^2)/2)</f>
         <v>1.839129832368783E-3</v>
       </c>
       <c r="F3">
@@ -7385,7 +7386,7 @@
         <v>5.0141037748977685E-2</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I20" si="0">(((F$3*10^-3)^2)/(9.81*G3))+((G3^2)/2)</f>
+        <f t="shared" ref="I3:I20" si="2">(((F$3*10^-3)^2)/(9.81*G3))+((G3^2)/2)</f>
         <v>1.6692737009599168E-3</v>
       </c>
       <c r="K3">
@@ -7400,7 +7401,7 @@
         <v>4.6122841970487653E-2</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N20" si="1">(((K$3*10^-3)^2)/(9.81*L3))+((L3^2)/2)</f>
+        <f t="shared" ref="N3:N20" si="3">(((K$3*10^-3)^2)/(9.81*L3))+((L3^2)/2)</f>
         <v>1.4113217673998623E-3</v>
       </c>
     </row>
@@ -7409,15 +7410,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <f>B3-0.002</f>
+        <f t="shared" ref="B4:B10" si="4">B3-0.002</f>
         <v>3.0956039866820675E-2</v>
       </c>
       <c r="C4" s="1">
-        <f>B4+(((A$3*10^-3)^2)/(2*9.81*(B4^2)))</f>
+        <f t="shared" si="0"/>
         <v>5.3242746055447099E-2</v>
       </c>
       <c r="D4" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B4))+((B4^2)/2)</f>
+        <f t="shared" si="1"/>
         <v>1.8589545326685732E-3</v>
       </c>
       <c r="F4" t="s">
@@ -7428,11 +7429,11 @@
         <v>2.9296827516516334E-2</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H20" si="2">G4+(((F$3*10^-3)^2)/(2*9.81*(G4^2)))</f>
+        <f t="shared" ref="H4:H20" si="5">G4+(((F$3*10^-3)^2)/(2*9.81*(G4^2)))</f>
         <v>5.080172542558694E-2</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6892026208709229E-3</v>
       </c>
       <c r="K4" t="s">
@@ -7443,11 +7444,11 @@
         <v>2.6605469016710591E-2</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M19" si="3">L4+(((K$3*10^-3)^2)/(2*9.81*(L4^2)))</f>
+        <f t="shared" ref="M4:M19" si="6">L4+(((K$3*10^-3)^2)/(2*9.81*(L4^2)))</f>
         <v>4.6855480951857334E-2</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4314476210567067E-3</v>
       </c>
     </row>
@@ -7457,15 +7458,15 @@
         <v>3.4956039866820679E-2</v>
       </c>
       <c r="B5" s="4">
-        <f>B4-0.002</f>
+        <f t="shared" si="4"/>
         <v>2.8956039866820674E-2</v>
       </c>
       <c r="C5" s="1">
-        <f>B5+(((A$3*10^-3)^2)/(2*9.81*(B5^2)))</f>
+        <f t="shared" si="0"/>
         <v>5.4427764466462844E-2</v>
       </c>
       <c r="D5" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B5))+((B5^2)/2)</f>
+        <f t="shared" si="1"/>
         <v>1.8943466683522855E-3</v>
       </c>
       <c r="F5" s="2">
@@ -7473,15 +7474,15 @@
         <v>3.3296827516516338E-2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G10" si="4">G4-0.002</f>
+        <f t="shared" ref="G5:G10" si="7">G4-0.002</f>
         <v>2.7296827516516332E-2</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2068436862214074E-2</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>5.2068436862214074E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
         <v>1.724931091465292E-3</v>
       </c>
       <c r="K5">
@@ -7489,205 +7490,205 @@
         <v>3.0605469016710594E-2</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L10" si="5">L4-0.002</f>
+        <f t="shared" ref="L5:L10" si="8">L4-0.002</f>
         <v>2.4605469016710589E-2</v>
       </c>
       <c r="M5" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8281223443953324E-2</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" si="3"/>
-        <v>4.8281223443953324E-2</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="1"/>
         <v>1.4678206367796918E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
-        <f>B5-0.002</f>
+        <f t="shared" si="4"/>
         <v>2.6956039866820672E-2</v>
       </c>
       <c r="C6" s="1">
-        <f>B6+(((A$3*10^-3)^2)/(2*9.81*(B6^2)))</f>
+        <f t="shared" si="0"/>
         <v>5.6347726068765536E-2</v>
       </c>
       <c r="D6" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B6))+((B6^2)/2)</f>
+        <f t="shared" si="1"/>
         <v>1.9478809726762305E-3</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5296827516516331E-2</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="5"/>
+        <v>5.4140227621576359E-2</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>5.4140227621576359E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="0"/>
         <v>1.7792577760953341E-3</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2605469016710587E-2</v>
       </c>
       <c r="M6" s="1">
+        <f t="shared" si="6"/>
+        <v>5.0655934840221739E-2</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="3"/>
-        <v>5.0655934840221739E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="1"/>
         <v>1.5236914868880923E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
-        <f>B6-0.002</f>
+        <f t="shared" si="4"/>
         <v>2.495603986682067E-2</v>
       </c>
       <c r="C7" s="1">
-        <f>B7+(((A$3*10^-3)^2)/(2*9.81*(B7^2)))</f>
+        <f t="shared" si="0"/>
         <v>5.9247449703543537E-2</v>
       </c>
       <c r="D7" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B7))+((B7^2)/2)</f>
+        <f t="shared" si="1"/>
         <v>2.0229575448666563E-3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3296827516516329E-2</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="5"/>
+        <v>5.730513392932382E-2</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>5.730513392932382E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="0"/>
         <v>1.855942383423181E-3</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0605469016710586E-2</v>
       </c>
       <c r="M7" s="1">
+        <f t="shared" si="6"/>
+        <v>5.4365443803760474E-2</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="3"/>
-        <v>5.4365443803760474E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="1"/>
         <v>1.6035729056582838E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
-        <f>B7-0.002</f>
+        <f t="shared" si="4"/>
         <v>2.2956039866820668E-2</v>
       </c>
       <c r="C8" s="1">
-        <f>B8+(((A$3*10^-3)^2)/(2*9.81*(B8^2)))</f>
+        <f t="shared" si="0"/>
         <v>6.3482879855264601E-2</v>
       </c>
       <c r="D8" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B8))+((B8^2)/2)</f>
+        <f t="shared" si="1"/>
         <v>2.1241613920854915E-3</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1296827516516327E-2</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="5"/>
+        <v>6.1992548443396307E-2</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>6.1992548443396307E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
         <v>1.9601569296142174E-3</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8605469016710584E-2</v>
       </c>
       <c r="M8" s="1">
+        <f t="shared" si="6"/>
+        <v>6.0013623730703645E-2</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="3"/>
-        <v>6.0013623730703645E-2</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="1"/>
         <v>1.7139180178066011E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <f>B8-0.002</f>
+        <f t="shared" si="4"/>
         <v>2.0956039866820667E-2</v>
       </c>
       <c r="C9" s="1">
-        <f>B9+(((A$3*10^-3)^2)/(2*9.81*(B9^2)))</f>
+        <f t="shared" si="0"/>
         <v>6.9587605382912088E-2</v>
       </c>
       <c r="D9" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B9))+((B9^2)/2)</f>
+        <f t="shared" si="1"/>
         <v>2.2578278549321143E-3</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9296827516516325E-2</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="5"/>
+        <v>6.8865437860621187E-2</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>6.8865437860621187E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
         <v>2.0992176241882879E-3</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6605469016710582E-2</v>
       </c>
       <c r="M9" s="1">
+        <f t="shared" si="6"/>
+        <v>6.858888667995916E-2</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="3"/>
-        <v>6.858888667995916E-2</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="1"/>
         <v>1.8642888634120671E-3</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
-        <f>B9-0.002</f>
+        <f t="shared" si="4"/>
         <v>1.8956039866820665E-2</v>
       </c>
       <c r="C10" s="1">
-        <f>B10+(((A$3*10^-3)^2)/(2*9.81*(B10^2)))</f>
+        <f t="shared" si="0"/>
         <v>7.8390928800992188E-2</v>
       </c>
       <c r="D10" s="2">
-        <f>(((A$3*10^-3)^2)/(9.81*B10))+((B10^2)/2)</f>
+        <f t="shared" si="1"/>
         <v>2.4329659719486752E-3</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7296827516516323E-2</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="5"/>
+        <v>7.8991216050036048E-2</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>7.8991216050036048E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
         <v>2.2838245154705246E-3</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4605469016710582E-2</v>
       </c>
       <c r="M10" s="1">
+        <f t="shared" si="6"/>
+        <v>8.1800337247378216E-2</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="3"/>
-        <v>8.1800337247378216E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="1"/>
         <v>2.069484994648979E-3</v>
       </c>
     </row>
@@ -7696,22 +7697,22 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C3:C20" si="6">B11+(((A$3*10^-3)^2)/(2*9.81*(B11^2)))</f>
+        <f t="shared" ref="C11:C20" si="9">B11+(((A$3*10^-3)^2)/(2*9.81*(B11^2)))</f>
         <v>5.243414258669829E-2</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" ref="D3:D20" si="7">(((A$3*10^-3)^2)/(9.81*B11))+((B11^2)/2)</f>
+        <f t="shared" ref="D11:D20" si="10">(((A$3*10^-3)^2)/(9.81*B11))+((B11^2)/2)</f>
         <v>1.8328899810688801E-3</v>
       </c>
       <c r="G11" s="9">
         <v>3.3296827516516338E-2</v>
       </c>
       <c r="H11" s="9">
+        <f t="shared" si="5"/>
+        <v>4.9945241274774496E-2</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>4.9945241274774496E-2</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="0"/>
         <v>1.6630180839969585E-3</v>
       </c>
       <c r="J11" s="2"/>
@@ -7719,11 +7720,11 @@
         <v>3.0605469016710594E-2</v>
       </c>
       <c r="M11" s="11">
+        <f t="shared" si="6"/>
+        <v>4.5908203525065874E-2</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="3"/>
-        <v>4.5908203525065874E-2</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="1"/>
         <v>1.4050421005992473E-3</v>
       </c>
     </row>
@@ -7733,11 +7734,11 @@
         <v>4.9956039866820678E-2</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.8513811149781228E-2</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.1028276863531087E-3</v>
       </c>
       <c r="G12" s="1">
@@ -7745,11 +7746,11 @@
         <v>4.8296827516516337E-2</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="5"/>
+        <v>5.6209831153387978E-2</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>5.6209831153387978E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
         <v>1.9306377176551773E-3</v>
       </c>
       <c r="L12" s="1">
@@ -7757,11 +7758,11 @@
         <v>4.5605469016710594E-2</v>
       </c>
       <c r="M12" s="1">
+        <f t="shared" si="6"/>
+        <v>5.249727859364299E-2</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="3"/>
-        <v>5.249727859364299E-2</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="1"/>
         <v>1.6685378183767942E-3</v>
       </c>
     </row>
@@ -7771,11 +7772,11 @@
         <v>6.4956039866820678E-2</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.0017753868664406E-2</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.7672213505864091E-3</v>
       </c>
       <c r="G13" s="1">
@@ -7783,11 +7784,11 @@
         <v>6.329682751651633E-2</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7903790117797208E-2</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>6.7903790117797208E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
         <v>2.586456421124443E-3</v>
       </c>
       <c r="L13" s="1">
@@ -7795,269 +7796,269 @@
         <v>6.0605469016710593E-2</v>
       </c>
       <c r="M13" s="1">
+        <f t="shared" si="6"/>
+        <v>6.4507974205089094E-2</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="3"/>
-        <v>6.4507974205089094E-2</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="1"/>
         <v>2.3095377519313847E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
-        <f t="shared" ref="B14:B20" si="8">B13+0.015</f>
+        <f t="shared" ref="B14:B20" si="11">B13+0.015</f>
         <v>7.9956039866820677E-2</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="9"/>
+        <v>8.3296714124714497E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="10"/>
+        <v>3.7306983238847491E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G20" si="12">G13+0.015</f>
+        <v>7.8296827516516329E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="5"/>
+        <v>8.1307685303330712E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5366778251974861E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14:L20" si="13">L13+0.015</f>
+        <v>7.5605469016710586E-2</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="6"/>
-        <v>8.3296714124714497E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="7"/>
-        <v>3.7306983238847491E-3</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G14:G20" si="9">G13+0.015</f>
-        <v>7.8296827516516329E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1307685303330712E-2</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5366778251974861E-3</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" ref="L14:L20" si="10">L13+0.015</f>
-        <v>7.5605469016710586E-2</v>
-      </c>
-      <c r="M14" s="1">
+        <v>7.8113083089345559E-2</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="3"/>
-        <v>7.8113083089345559E-2</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="1"/>
         <v>3.2372721487673338E-3</v>
       </c>
     </row>
     <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.4956039866820677E-2</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="9"/>
+        <v>9.7324638607592065E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="10"/>
+        <v>4.9581502665089977E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="12"/>
+        <v>9.3296827516516329E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="5"/>
+        <v>9.541735947068819E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7478268202665649E-3</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="13"/>
+        <v>9.0605469016710585E-2</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="6"/>
-        <v>9.7324638607592065E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>4.9581502665089977E-3</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="9"/>
-        <v>9.3296827516516329E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>9.541735947068819E-2</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7478268202665649E-3</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="10"/>
-        <v>9.0605469016710585E-2</v>
-      </c>
-      <c r="M15" s="1">
+        <v>9.235152553180033E-2</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="3"/>
-        <v>9.235152553180033E-2</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="1"/>
         <v>4.4210800468278289E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.10995603986682068</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11172247828715798</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="10"/>
+        <v>6.4336264983347142E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="12"/>
+        <v>0.10829682751651633</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10987061868774206</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2049746071055423E-3</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="13"/>
+        <v>0.10560546901671058</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="6"/>
-        <v>0.11172247828715798</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="7"/>
-        <v>6.4336264983347142E-3</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="9"/>
-        <v>0.10829682751651633</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10987061868774206</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2049746071055423E-3</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="10"/>
-        <v>0.10560546901671058</v>
-      </c>
-      <c r="M16" s="1">
+        <v>0.1068907388159305</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="3"/>
-        <v>0.1068907388159305</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="1"/>
         <v>5.8477205830389763E-3</v>
       </c>
     </row>
     <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.12495603986682068</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="9"/>
+        <v>0.12632383853423437</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="10"/>
+        <v>8.1488353592295004E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="12"/>
+        <v>0.12329682751651633</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.12451098429620273</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9004571959047955E-3</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="13"/>
+        <v>0.12060546901671058</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="6"/>
-        <v>0.12632383853423437</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="7"/>
-        <v>8.1488353592295004E-3</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="9"/>
-        <v>0.12329682751651633</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12451098429620273</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9004571959047955E-3</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="10"/>
-        <v>0.12060546901671058</v>
-      </c>
-      <c r="M17" s="1">
+        <v>0.12159091566868389</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="3"/>
-        <v>0.12159091566868389</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="1"/>
         <v>7.5105400896747446E-3</v>
       </c>
     </row>
     <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.13995603986682068</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="9"/>
+        <v>0.14104635839309651</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="10"/>
+        <v>1.0099039873863539E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="12"/>
+        <v>0.13829682751651634</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13926188712310211</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8299356144768354E-3</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13560546901671058</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="6"/>
-        <v>0.14104635839309651</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0099039873863539E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="9"/>
-        <v>0.13829682751651634</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13926188712310211</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>9.8299356144768354E-3</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="10"/>
-        <v>0.13560546901671058</v>
-      </c>
-      <c r="M18" s="1">
+        <v>0.13638496290050492</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="3"/>
-        <v>0.13638496290050492</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="1"/>
         <v>9.4058288810362038E-3</v>
       </c>
     </row>
     <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.15495603986682066</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.1558454860271983</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2281337254977596E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="12"/>
+        <v>0.15329682751651635</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15408226611373996</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.199076915364109E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.15060546901671057</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="6"/>
-        <v>0.1558454860271983</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="7"/>
-        <v>1.2281337254977596E-2</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.15329682751651635</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15408226611373996</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.199076915364109E-2</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="10"/>
-        <v>0.15060546901671057</v>
-      </c>
-      <c r="M19" s="1">
+        <v>0.15123742326297845</v>
+      </c>
+      <c r="N19" s="2">
         <f t="shared" si="3"/>
-        <v>0.15123742326297845</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="1"/>
         <v>1.1531355180184237E-2</v>
       </c>
     </row>
     <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.16995603986682067</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.17069541267772492</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="7"/>
+        <f>(((A$3*10^-3)^2)/(9.81*B20))+((B20^2)/2)</f>
         <v>1.4693849493459142E-2</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.16829682751651637</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.16894849599546541</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>0.16894849599546541</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
         <v>1.4381258551261308E-2</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.16560546901671058</v>
       </c>
       <c r="M20" s="1">
@@ -8065,746 +8066,746 @@
         <v>0.16612812722121995</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3885695798308751E-2</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="F22" s="14" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="F22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="K22" s="15" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="K22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="21">
         <v>20.47</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="26">
         <v>1.8956039866820665E-2</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="14">
         <v>7.8390928800992188E-2</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="30">
         <v>2.4329659719486752E-3</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="21">
         <v>19.03</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="26">
         <v>1.7296827516516323E-2</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="16">
         <v>7.8991216050036048E-2</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="2">
         <v>2.2838245154705246E-3</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="21">
         <v>16.77</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="26">
         <v>1.4605469016710582E-2</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="16">
         <v>8.1800337247378216E-2</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="2">
         <v>2.069484994648979E-3</v>
       </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
+      <c r="B25" s="26">
         <v>2.0956039866820667E-2</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="14">
         <v>6.9587605382912088E-2</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="30">
         <v>2.2578278549321143E-3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="26">
         <v>1.9296827516516325E-2</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="16">
         <v>6.8865437860621187E-2</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="2">
         <v>2.0992176241882879E-3</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="26">
         <v>1.6605469016710582E-2</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="16">
         <v>6.858888667995916E-2</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="2">
         <v>1.8642888634120671E-3</v>
       </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
+      <c r="B26" s="26">
         <v>2.2956039866820668E-2</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="14">
         <v>6.3482879855264601E-2</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="30">
         <v>2.1241613920854915E-3</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="26">
         <v>2.1296827516516327E-2</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="16">
         <v>6.1992548443396307E-2</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="2">
         <v>1.9601569296142174E-3</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="26">
         <v>1.8605469016710584E-2</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="16">
         <v>6.0013623730703645E-2</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="2">
         <v>1.7139180178066011E-3</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+      <c r="B27" s="26">
         <v>2.495603986682067E-2</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="14">
         <v>5.9247449703543537E-2</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="30">
         <v>2.0229575448666563E-3</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="26">
         <v>2.3296827516516329E-2</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="16">
         <v>5.730513392932382E-2</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="2">
         <v>1.855942383423181E-3</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="26">
         <v>2.0605469016710586E-2</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="16">
         <v>5.4365443803760474E-2</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="2">
         <v>1.6035729056582838E-3</v>
       </c>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
+      <c r="B28" s="26">
         <v>2.6956039866820672E-2</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <v>5.6347726068765536E-2</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="30">
         <v>1.9478809726762305E-3</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="26">
         <v>2.5296827516516331E-2</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="16">
         <v>5.4140227621576359E-2</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="2">
         <v>1.7792577760953341E-3</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="26">
         <v>2.2605469016710587E-2</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="16">
         <v>5.0655934840221739E-2</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="2">
         <v>1.5236914868880923E-3</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
+      <c r="B29" s="26">
         <v>2.8956039866820674E-2</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>5.4427764466462844E-2</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="30">
         <v>1.8943466683522855E-3</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="G29" s="1">
+      <c r="G29" s="26">
         <v>2.7296827516516332E-2</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="16">
         <v>5.2068436862214074E-2</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="2">
         <v>1.724931091465292E-3</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="26">
         <v>2.4605469016710589E-2</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="16">
         <v>4.8281223443953324E-2</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N29" s="2">
         <v>1.4678206367796918E-3</v>
       </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+      <c r="B30" s="26">
         <v>3.0956039866820675E-2</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>5.3242746055447099E-2</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="30">
         <v>1.8589545326685732E-3</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="G30" s="1">
+      <c r="G30" s="26">
         <v>2.9296827516516334E-2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="16">
         <v>5.080172542558694E-2</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="2">
         <v>1.6892026208709229E-3</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="26">
         <v>2.6605469016710591E-2</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="16">
         <v>4.6855480951857334E-2</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="2">
         <v>1.4314476210567067E-3</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
+      <c r="B31" s="26">
         <v>3.2956039866820677E-2</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <v>5.2619803409932345E-2</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="30">
         <v>1.839129832368783E-3</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="G31" s="1">
+      <c r="G31" s="26">
         <v>3.1296827516516336E-2</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="16">
         <v>5.0141037748977685E-2</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="2">
         <v>1.6692737009599168E-3</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="26">
         <v>2.8605469016710593E-2</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="16">
         <v>4.6122841970487653E-2</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="2">
         <v>1.4113217673998623E-3</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="27">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="15">
         <v>5.243414258669829E-2</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="31">
         <v>1.8328899810688801E-3</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="28">
         <v>3.3296827516516338E-2</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="17">
         <v>4.9945241274774496E-2</v>
       </c>
-      <c r="I32" s="21">
-        <f>(((F$3*10^-3)^2)/(9.81*G32))+((G32^2)/2)</f>
+      <c r="I32" s="10">
+        <f t="shared" ref="I32:I41" si="14">(((F$3*10^-3)^2)/(9.81*G32))+((G32^2)/2)</f>
         <v>1.6630180839969585E-3</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="29">
         <v>3.0605469016710594E-2</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="18">
         <v>4.5908203525065874E-2</v>
       </c>
-      <c r="N32" s="23">
-        <f>(((K$3*10^-3)^2)/(9.81*L32))+((L32^2)/2)</f>
+      <c r="N32" s="12">
+        <f t="shared" ref="N32:N41" si="15">(((K$3*10^-3)^2)/(9.81*L32))+((L32^2)/2)</f>
         <v>1.4050421005992473E-3</v>
       </c>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
     </row>
     <row r="33" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
+      <c r="B33" s="26">
         <v>4.9956039866820678E-2</v>
       </c>
-      <c r="C33" s="19">
-        <f>B33+(((A$3*10^-3)^2)/(2*9.81*(B33^2)))</f>
+      <c r="C33" s="16">
+        <f t="shared" ref="C33:C41" si="16">B33+(((A$3*10^-3)^2)/(2*9.81*(B33^2)))</f>
         <v>5.8513811149781228E-2</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="30">
         <v>2.1028276863531087E-3</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="G33" s="1">
+      <c r="G33" s="26">
         <v>4.8296827516516337E-2</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="16">
         <v>5.6209831153387978E-2</v>
       </c>
-      <c r="I33" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G33))+((G33^2)/2)</f>
+      <c r="I33" s="2">
+        <f t="shared" si="14"/>
         <v>1.9306377176551773E-3</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="26">
         <v>4.5605469016710594E-2</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="16">
         <v>5.249727859364299E-2</v>
       </c>
-      <c r="N33" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L33))+((L33^2)/2)</f>
+      <c r="N33" s="2">
+        <f t="shared" si="15"/>
         <v>1.6685378183767942E-3</v>
       </c>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
     </row>
     <row r="34" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
+      <c r="B34" s="26">
         <v>6.4956039866820678E-2</v>
       </c>
-      <c r="C34" s="19">
-        <f>B34+(((A$3*10^-3)^2)/(2*9.81*(B34^2)))</f>
+      <c r="C34" s="16">
+        <f t="shared" si="16"/>
         <v>7.0017753868664406E-2</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="30">
         <v>2.7672213505864091E-3</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="G34" s="1">
+      <c r="G34" s="26">
         <v>6.329682751651633E-2</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="16">
         <v>6.7903790117797208E-2</v>
       </c>
-      <c r="I34" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G34))+((G34^2)/2)</f>
+      <c r="I34" s="2">
+        <f t="shared" si="14"/>
         <v>2.586456421124443E-3</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="26">
         <v>6.0605469016710593E-2</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="16">
         <v>6.4507974205089094E-2</v>
       </c>
-      <c r="N34" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L34))+((L34^2)/2)</f>
+      <c r="N34" s="2">
+        <f t="shared" si="15"/>
         <v>2.3095377519313847E-3</v>
       </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
+      <c r="B35" s="26">
         <v>7.9956039866820677E-2</v>
       </c>
-      <c r="C35" s="19">
-        <f>B35+(((A$3*10^-3)^2)/(2*9.81*(B35^2)))</f>
+      <c r="C35" s="16">
+        <f t="shared" si="16"/>
         <v>8.3296714124714497E-2</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="30">
         <v>3.7306983238847491E-3</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="G35" s="1">
+      <c r="G35" s="26">
         <v>7.8296827516516329E-2</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="16">
         <v>8.1307685303330712E-2</v>
       </c>
-      <c r="I35" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G35))+((G35^2)/2)</f>
+      <c r="I35" s="2">
+        <f t="shared" si="14"/>
         <v>3.5366778251974861E-3</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="26">
         <v>7.5605469016710586E-2</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="16">
         <v>7.8113083089345559E-2</v>
       </c>
-      <c r="N35" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L35))+((L35^2)/2)</f>
+      <c r="N35" s="2">
+        <f t="shared" si="15"/>
         <v>3.2372721487673338E-3</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
+      <c r="B36" s="26">
         <v>9.4956039866820677E-2</v>
       </c>
-      <c r="C36" s="19">
-        <f>B36+(((A$3*10^-3)^2)/(2*9.81*(B36^2)))</f>
+      <c r="C36" s="16">
+        <f t="shared" si="16"/>
         <v>9.7324638607592065E-2</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="30">
         <v>4.9581502665089977E-3</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="G36" s="1">
+      <c r="G36" s="26">
         <v>9.3296827516516329E-2</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="16">
         <v>9.541735947068819E-2</v>
       </c>
-      <c r="I36" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G36))+((G36^2)/2)</f>
+      <c r="I36" s="2">
+        <f t="shared" si="14"/>
         <v>4.7478268202665649E-3</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="26">
         <v>9.0605469016710585E-2</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="16">
         <v>9.235152553180033E-2</v>
       </c>
-      <c r="N36" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L36))+((L36^2)/2)</f>
+      <c r="N36" s="2">
+        <f t="shared" si="15"/>
         <v>4.4210800468278289E-3</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
+      <c r="B37" s="26">
         <v>0.10995603986682068</v>
       </c>
-      <c r="C37" s="19">
-        <f>B37+(((A$3*10^-3)^2)/(2*9.81*(B37^2)))</f>
+      <c r="C37" s="16">
+        <f t="shared" si="16"/>
         <v>0.11172247828715798</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="30">
         <v>6.4336264983347142E-3</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="26">
         <v>0.10829682751651633</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="16">
         <v>0.10987061868774206</v>
       </c>
-      <c r="I37" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G37))+((G37^2)/2)</f>
+      <c r="I37" s="2">
+        <f t="shared" si="14"/>
         <v>6.2049746071055423E-3</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="26">
         <v>0.10560546901671058</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="16">
         <v>0.1068907388159305</v>
       </c>
-      <c r="N37" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L37))+((L37^2)/2)</f>
+      <c r="N37" s="2">
+        <f t="shared" si="15"/>
         <v>5.8477205830389763E-3</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
+      <c r="B38" s="26">
         <v>0.12495603986682068</v>
       </c>
-      <c r="C38" s="19">
-        <f>B38+(((A$3*10^-3)^2)/(2*9.81*(B38^2)))</f>
+      <c r="C38" s="16">
+        <f t="shared" si="16"/>
         <v>0.12632383853423437</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="30">
         <v>8.1488353592295004E-3</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="26">
         <v>0.12329682751651633</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="16">
         <v>0.12451098429620273</v>
       </c>
-      <c r="I38" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G38))+((G38^2)/2)</f>
+      <c r="I38" s="2">
+        <f t="shared" si="14"/>
         <v>7.9004571959047955E-3</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="26">
         <v>0.12060546901671058</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="16">
         <v>0.12159091566868389</v>
       </c>
-      <c r="N38" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L38))+((L38^2)/2)</f>
+      <c r="N38" s="2">
+        <f t="shared" si="15"/>
         <v>7.5105400896747446E-3</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
+      <c r="B39" s="26">
         <v>0.13995603986682068</v>
       </c>
-      <c r="C39" s="19">
-        <f>B39+(((A$3*10^-3)^2)/(2*9.81*(B39^2)))</f>
+      <c r="C39" s="16">
+        <f t="shared" si="16"/>
         <v>0.14104635839309651</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="30">
         <v>1.0099039873863539E-2</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="26">
         <v>0.13829682751651634</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="16">
         <v>0.13926188712310211</v>
       </c>
-      <c r="I39" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G39))+((G39^2)/2)</f>
+      <c r="I39" s="2">
+        <f t="shared" si="14"/>
         <v>9.8299356144768354E-3</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="26">
         <v>0.13560546901671058</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="16">
         <v>0.13638496290050492</v>
       </c>
-      <c r="N39" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L39))+((L39^2)/2)</f>
+      <c r="N39" s="2">
+        <f t="shared" si="15"/>
         <v>9.4058288810362038E-3</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
+      <c r="B40" s="26">
         <v>0.15495603986682066</v>
       </c>
-      <c r="C40" s="19">
-        <f>B40+(((A$3*10^-3)^2)/(2*9.81*(B40^2)))</f>
+      <c r="C40" s="16">
+        <f t="shared" si="16"/>
         <v>0.1558454860271983</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="30">
         <v>1.2281337254977596E-2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="26">
         <v>0.15329682751651635</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="16">
         <v>0.15408226611373996</v>
       </c>
-      <c r="I40" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G40))+((G40^2)/2)</f>
+      <c r="I40" s="2">
+        <f t="shared" si="14"/>
         <v>1.199076915364109E-2</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="26">
         <v>0.15060546901671057</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="16">
         <v>0.15123742326297845</v>
       </c>
-      <c r="N40" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L40))+((L40^2)/2)</f>
+      <c r="N40" s="2">
+        <f t="shared" si="15"/>
         <v>1.1531355180184237E-2</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
+      <c r="B41" s="26">
         <v>0.16995603986682067</v>
       </c>
-      <c r="C41" s="19">
-        <f>B41+(((A$3*10^-3)^2)/(2*9.81*(B41^2)))</f>
+      <c r="C41" s="16">
+        <f t="shared" si="16"/>
         <v>0.17069541267772492</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="30">
         <v>1.4693849493459142E-2</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="26">
         <v>0.16829682751651637</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="16">
         <v>0.16894849599546541</v>
       </c>
-      <c r="I41" s="20">
-        <f>(((F$3*10^-3)^2)/(9.81*G41))+((G41^2)/2)</f>
+      <c r="I41" s="2">
+        <f t="shared" si="14"/>
         <v>1.4381258551261308E-2</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="26">
         <v>0.16560546901671058</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="16">
         <v>0.16612812722121995</v>
       </c>
-      <c r="N41" s="20">
-        <f>(((K$3*10^-3)^2)/(9.81*L41))+((L41^2)/2)</f>
+      <c r="N41" s="2">
+        <f t="shared" si="15"/>
         <v>1.3885695798308751E-2</v>
       </c>
     </row>

--- a/lab9/Lab09-Flu-Mook.xlsx
+++ b/lab9/Lab09-Flu-Mook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C1A08C-8C4F-49B5-BFED-CF93D92D5427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E721873-73CE-4921-AFB5-80A5FC854AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8426D50-BA63-164F-9726-EF2B590156AB}"/>
   </bookViews>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -189,15 +189,6 @@
     <xf numFmtId="187" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="188" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,6 +214,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="188" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -355,7 +352,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$24:$C$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7.8390928800992188E-2</c:v>
@@ -585,7 +582,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1484,7 +1481,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$24:$H$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7.8991216050036048E-2</c:v>
@@ -1714,7 +1711,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2615,7 +2612,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$24:$M$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>8.1800337247378216E-2</c:v>
@@ -2790,7 +2787,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7286,7 +7283,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,24 +7298,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="25" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8091,524 +8088,524 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="F22" s="24" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="F22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="K22" s="25" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="K22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="16">
         <v>20.47</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="21">
         <v>1.8956039866820665E-2</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="27">
         <v>7.8390928800992188E-2</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="25">
         <v>2.4329659719486752E-3</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="16">
         <v>19.03</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="21">
         <v>1.7296827516516323E-2</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="21">
         <v>7.8991216050036048E-2</v>
       </c>
       <c r="I24" s="2">
         <v>2.2838245154705246E-3</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="16">
         <v>16.77</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="21">
         <v>1.4605469016710582E-2</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="21">
         <v>8.1800337247378216E-2</v>
       </c>
       <c r="N24" s="2">
         <v>2.069484994648979E-3</v>
       </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="21">
         <v>2.0956039866820667E-2</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="27">
         <v>6.9587605382912088E-2</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="25">
         <v>2.2578278549321143E-3</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="21">
         <v>1.9296827516516325E-2</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="21">
         <v>6.8865437860621187E-2</v>
       </c>
       <c r="I25" s="2">
         <v>2.0992176241882879E-3</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="21">
         <v>1.6605469016710582E-2</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="21">
         <v>6.858888667995916E-2</v>
       </c>
       <c r="N25" s="2">
         <v>1.8642888634120671E-3</v>
       </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
+      <c r="B26" s="21">
         <v>2.2956039866820668E-2</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="27">
         <v>6.3482879855264601E-2</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="25">
         <v>2.1241613920854915E-3</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="21">
         <v>2.1296827516516327E-2</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="21">
         <v>6.1992548443396307E-2</v>
       </c>
       <c r="I26" s="2">
         <v>1.9601569296142174E-3</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="21">
         <v>1.8605469016710584E-2</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="21">
         <v>6.0013623730703645E-2</v>
       </c>
       <c r="N26" s="2">
         <v>1.7139180178066011E-3</v>
       </c>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="21">
         <v>2.495603986682067E-2</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="27">
         <v>5.9247449703543537E-2</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="25">
         <v>2.0229575448666563E-3</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="21">
         <v>2.3296827516516329E-2</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="21">
         <v>5.730513392932382E-2</v>
       </c>
       <c r="I27" s="2">
         <v>1.855942383423181E-3</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="21">
         <v>2.0605469016710586E-2</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="21">
         <v>5.4365443803760474E-2</v>
       </c>
       <c r="N27" s="2">
         <v>1.6035729056582838E-3</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
+      <c r="B28" s="21">
         <v>2.6956039866820672E-2</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="27">
         <v>5.6347726068765536E-2</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="25">
         <v>1.9478809726762305E-3</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="21">
         <v>2.5296827516516331E-2</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="21">
         <v>5.4140227621576359E-2</v>
       </c>
       <c r="I28" s="2">
         <v>1.7792577760953341E-3</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="21">
         <v>2.2605469016710587E-2</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="21">
         <v>5.0655934840221739E-2</v>
       </c>
       <c r="N28" s="2">
         <v>1.5236914868880923E-3</v>
       </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26">
+      <c r="B29" s="21">
         <v>2.8956039866820674E-2</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="27">
         <v>5.4427764466462844E-2</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="25">
         <v>1.8943466683522855E-3</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="G29" s="26">
+      <c r="G29" s="21">
         <v>2.7296827516516332E-2</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="21">
         <v>5.2068436862214074E-2</v>
       </c>
       <c r="I29" s="2">
         <v>1.724931091465292E-3</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="21">
         <v>2.4605469016710589E-2</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="21">
         <v>4.8281223443953324E-2</v>
       </c>
       <c r="N29" s="2">
         <v>1.4678206367796918E-3</v>
       </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="26">
+      <c r="B30" s="21">
         <v>3.0956039866820675E-2</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="27">
         <v>5.3242746055447099E-2</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="25">
         <v>1.8589545326685732E-3</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="G30" s="26">
+      <c r="G30" s="21">
         <v>2.9296827516516334E-2</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="21">
         <v>5.080172542558694E-2</v>
       </c>
       <c r="I30" s="2">
         <v>1.6892026208709229E-3</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="21">
         <v>2.6605469016710591E-2</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="21">
         <v>4.6855480951857334E-2</v>
       </c>
       <c r="N30" s="2">
         <v>1.4314476210567067E-3</v>
       </c>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26">
+      <c r="B31" s="21">
         <v>3.2956039866820677E-2</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="27">
         <v>5.2619803409932345E-2</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="25">
         <v>1.839129832368783E-3</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="G31" s="26">
+      <c r="G31" s="21">
         <v>3.1296827516516336E-2</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="21">
         <v>5.0141037748977685E-2</v>
       </c>
       <c r="I31" s="2">
         <v>1.6692737009599168E-3</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="21">
         <v>2.8605469016710593E-2</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="21">
         <v>4.6122841970487653E-2</v>
       </c>
       <c r="N31" s="2">
         <v>1.4113217673998623E-3</v>
       </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="22">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="28">
         <v>5.243414258669829E-2</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="26">
         <v>1.8328899810688801E-3</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="23">
         <v>3.3296827516516338E-2</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="23">
         <v>4.9945241274774496E-2</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" ref="I32:I41" si="14">(((F$3*10^-3)^2)/(9.81*G32))+((G32^2)/2)</f>
         <v>1.6630180839969585E-3</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="24">
         <v>3.0605469016710594E-2</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="24">
         <v>4.5908203525065874E-2</v>
       </c>
       <c r="N32" s="12">
         <f t="shared" ref="N32:N41" si="15">(((K$3*10^-3)^2)/(9.81*L32))+((L32^2)/2)</f>
         <v>1.4050421005992473E-3</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
     </row>
     <row r="33" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="26">
+      <c r="B33" s="21">
         <v>4.9956039866820678E-2</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="21">
         <f t="shared" ref="C33:C41" si="16">B33+(((A$3*10^-3)^2)/(2*9.81*(B33^2)))</f>
         <v>5.8513811149781228E-2</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="25">
         <v>2.1028276863531087E-3</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="G33" s="26">
+      <c r="G33" s="21">
         <v>4.8296827516516337E-2</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="21">
         <v>5.6209831153387978E-2</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="14"/>
         <v>1.9306377176551773E-3</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="21">
         <v>4.5605469016710594E-2</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="21">
         <v>5.249727859364299E-2</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="15"/>
         <v>1.6685378183767942E-3</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
     </row>
     <row r="34" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="26">
+      <c r="B34" s="21">
         <v>6.4956039866820678E-2</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="21">
         <f t="shared" si="16"/>
         <v>7.0017753868664406E-2</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="25">
         <v>2.7672213505864091E-3</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="G34" s="26">
+      <c r="G34" s="21">
         <v>6.329682751651633E-2</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="21">
         <v>6.7903790117797208E-2</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="14"/>
         <v>2.586456421124443E-3</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="21">
         <v>6.0605469016710593E-2</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="21">
         <v>6.4507974205089094E-2</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="15"/>
         <v>2.3095377519313847E-3</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
+      <c r="B35" s="21">
         <v>7.9956039866820677E-2</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="21">
         <f t="shared" si="16"/>
         <v>8.3296714124714497E-2</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="25">
         <v>3.7306983238847491E-3</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="G35" s="26">
+      <c r="G35" s="21">
         <v>7.8296827516516329E-2</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="21">
         <v>8.1307685303330712E-2</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="14"/>
         <v>3.5366778251974861E-3</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="21">
         <v>7.5605469016710586E-2</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="21">
         <v>7.8113083089345559E-2</v>
       </c>
       <c r="N35" s="2">
@@ -8617,31 +8614,31 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
+      <c r="B36" s="21">
         <v>9.4956039866820677E-2</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="21">
         <f t="shared" si="16"/>
         <v>9.7324638607592065E-2</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="25">
         <v>4.9581502665089977E-3</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="G36" s="26">
+      <c r="G36" s="21">
         <v>9.3296827516516329E-2</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="21">
         <v>9.541735947068819E-2</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="14"/>
         <v>4.7478268202665649E-3</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="21">
         <v>9.0605469016710585E-2</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="21">
         <v>9.235152553180033E-2</v>
       </c>
       <c r="N36" s="2">
@@ -8650,30 +8647,30 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
+      <c r="B37" s="21">
         <v>0.10995603986682068</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="21">
         <f t="shared" si="16"/>
         <v>0.11172247828715798</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="25">
         <v>6.4336264983347142E-3</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="21">
         <v>0.10829682751651633</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="21">
         <v>0.10987061868774206</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="14"/>
         <v>6.2049746071055423E-3</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="21">
         <v>0.10560546901671058</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="21">
         <v>0.1068907388159305</v>
       </c>
       <c r="N37" s="2">
@@ -8682,30 +8679,30 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="26">
+      <c r="B38" s="21">
         <v>0.12495603986682068</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="21">
         <f t="shared" si="16"/>
         <v>0.12632383853423437</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="25">
         <v>8.1488353592295004E-3</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="21">
         <v>0.12329682751651633</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="21">
         <v>0.12451098429620273</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="14"/>
         <v>7.9004571959047955E-3</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="21">
         <v>0.12060546901671058</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="21">
         <v>0.12159091566868389</v>
       </c>
       <c r="N38" s="2">
@@ -8714,30 +8711,30 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
+      <c r="B39" s="21">
         <v>0.13995603986682068</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="21">
         <f t="shared" si="16"/>
         <v>0.14104635839309651</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="25">
         <v>1.0099039873863539E-2</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="21">
         <v>0.13829682751651634</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="21">
         <v>0.13926188712310211</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="14"/>
         <v>9.8299356144768354E-3</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="21">
         <v>0.13560546901671058</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="21">
         <v>0.13638496290050492</v>
       </c>
       <c r="N39" s="2">
@@ -8746,30 +8743,30 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
+      <c r="B40" s="21">
         <v>0.15495603986682066</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="21">
         <f t="shared" si="16"/>
         <v>0.1558454860271983</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="25">
         <v>1.2281337254977596E-2</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="21">
         <v>0.15329682751651635</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="21">
         <v>0.15408226611373996</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="14"/>
         <v>1.199076915364109E-2</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="21">
         <v>0.15060546901671057</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="21">
         <v>0.15123742326297845</v>
       </c>
       <c r="N40" s="2">
@@ -8778,30 +8775,30 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="26">
+      <c r="B41" s="21">
         <v>0.16995603986682067</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="21">
         <f t="shared" si="16"/>
         <v>0.17069541267772492</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="25">
         <v>1.4693849493459142E-2</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="21">
         <v>0.16829682751651637</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="21">
         <v>0.16894849599546541</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="14"/>
         <v>1.4381258551261308E-2</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="21">
         <v>0.16560546901671058</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="21">
         <v>0.16612812722121995</v>
       </c>
       <c r="N41" s="2">

--- a/lab9/Lab09-Flu-Mook.xlsx
+++ b/lab9/Lab09-Flu-Mook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E721873-73CE-4921-AFB5-80A5FC854AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A16AB-425B-47B8-B52C-A3125A6FC94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8426D50-BA63-164F-9726-EF2B590156AB}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F8426D50-BA63-164F-9726-EF2B590156AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,9 +405,6 @@
                 <c:pt idx="16">
                   <c:v>0.1558454860271983</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17069541267772492</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -467,9 +464,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15495603986682066</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16995603986682067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,9 +966,6 @@
                 <c:pt idx="16">
                   <c:v>1.2281337254977596E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4693849493459142E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1034,9 +1025,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15495603986682066</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16995603986682067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,9 +1522,6 @@
                 <c:pt idx="16">
                   <c:v>0.15408226611373996</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16894849599546541</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1596,9 +1581,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15329682751651635</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16829682751651637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,9 +2085,6 @@
                 <c:pt idx="16">
                   <c:v>1.199076915364109E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4381258551261308E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2165,9 +2144,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15329682751651635</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16829682751651637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,9 +2641,6 @@
                 <c:pt idx="16">
                   <c:v>0.15123742326297845</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16612812722121995</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2727,9 +2700,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15060546901671057</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16560546901671058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,9 +3101,6 @@
                 <c:pt idx="16">
                   <c:v>1.1531355180184237E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3885695798308751E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3193,9 +3160,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15060546901671057</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16560546901671058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7283,7 +7247,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8775,36 +8739,15 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="21">
-        <v>0.16995603986682067</v>
-      </c>
-      <c r="C41" s="21">
-        <f t="shared" si="16"/>
-        <v>0.17069541267772492</v>
-      </c>
-      <c r="D41" s="25">
-        <v>1.4693849493459142E-2</v>
-      </c>
-      <c r="G41" s="21">
-        <v>0.16829682751651637</v>
-      </c>
-      <c r="H41" s="21">
-        <v>0.16894849599546541</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="14"/>
-        <v>1.4381258551261308E-2</v>
-      </c>
-      <c r="L41" s="21">
-        <v>0.16560546901671058</v>
-      </c>
-      <c r="M41" s="21">
-        <v>0.16612812722121995</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="15"/>
-        <v>1.3885695798308751E-2</v>
-      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="25"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="2"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L24:N31">
